--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:55 AM</t>
+    <t>Friday, 29 August, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -74,37 +74,55 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>76:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Friday, 29 August, 2025 11:19 AM</t>
+    <t>Friday, 29 August, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,18 +835,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -837,66 +855,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>124.73</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>28</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>163.49000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +1009,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -44,22 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
     <t>2:7</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
     <t>11.5200</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
   </si>
   <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
@@ -86,6 +119,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -116,13 +158,34 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>10:4</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:49 AM</t>
+    <t>Friday, 29 August, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -796,7 +859,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -806,14 +869,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,14 +885,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -839,11 +902,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -855,31 +918,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -888,31 +951,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -921,66 +984,264 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>29</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>163.49000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>41</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>41</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>41</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>14</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>41</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>42</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>322.24000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1280,40 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 12:16 PM</t>
+    <t>Friday, 29 August, 2025 1:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -131,7 +143,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>37:0</t>
+    <t>36:0</t>
   </si>
   <si>
     <t>0</t>
@@ -140,52 +152,76 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>76:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>10:4</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>76:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ديتول صغير</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t>10:4</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>Friday, 29 August, 2025 1:50 PM</t>
+    <t>Friday, 29 August, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -991,7 +1027,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1001,14 +1037,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1024,7 +1060,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1034,11 +1070,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1050,31 +1086,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1083,31 +1119,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1116,20 +1152,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1140,7 +1176,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1156,24 +1192,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1182,66 +1218,165 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>322.24000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>59</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>60</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>61</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>45</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>14</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>65</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>45</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>66</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>56</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>45</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>46</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>457.24000000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1445,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 3:46 PM</t>
+    <t>Friday, 29 August, 2025 4:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1011,7 +1020,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1027,7 +1036,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1037,14 +1046,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1060,7 +1069,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1070,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1086,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1126,24 +1135,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1152,31 +1161,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1185,20 +1194,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1209,7 +1218,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1225,24 +1234,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1251,31 +1260,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,31 +1293,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1317,66 +1326,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>457.24000000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>70</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>71</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>59</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>48</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>49</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>482.98000000000002</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1502,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 4:36 PM</t>
+    <t>Friday, 29 August, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -71,61 +71,64 @@
     <t>36.6300</t>
   </si>
   <si>
-    <t>BRUFEN 400MG 30 TAB</t>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
   </si>
   <si>
     <t>ROWACHOL 45 CAPSULES</t>
@@ -197,9 +200,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 4:56 PM</t>
+    <t>Friday, 29 August, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1020,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1036,7 +1036,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,14 +1046,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1069,7 +1069,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1079,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1095,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1161,28 +1161,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1194,31 +1194,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1240,18 +1240,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,31 +1260,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1306,7 +1306,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1339,7 +1339,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1350,7 +1350,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1366,29 +1366,29 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="P23" s="13">
-        <v>482.98000000000002</v>
+        <v>476.24000000000001</v>
       </c>
       <c r="Q23" s="13"/>
     </row>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>9.9000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -71,6 +83,42 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOROFEN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -89,18 +137,9 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>118.50</t>
   </si>
   <si>
@@ -119,6 +158,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -164,9 +212,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -197,7 +242,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -209,9 +257,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -230,7 +275,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:07 PM</t>
+    <t>Friday, 29 August, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -904,7 +949,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -914,11 +959,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -930,14 +975,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -970,7 +1015,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -980,11 +1025,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -996,14 +1041,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1013,14 +1058,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1036,7 +1081,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,14 +1091,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,7 +1131,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1112,11 +1157,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1128,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1161,31 +1206,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,31 +1239,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,31 +1272,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,31 +1305,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,31 +1338,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,31 +1371,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,66 +1404,231 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>65</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>72</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>476.24000000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c t="s" r="Q23" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>74</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>65</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>65</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>19</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>65</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>75</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>65</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>66</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>697.13</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>88</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>89</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>90</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1717,35 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -158,6 +158,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -179,6 +194,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -206,9 +230,6 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -236,9 +257,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -275,7 +293,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:15 PM</t>
+    <t>Friday, 29 August, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,24 +1264,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1305,14 +1323,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,14 +1340,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1338,14 +1356,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,14 +1373,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1371,20 +1389,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1392,10 +1410,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1404,20 +1422,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1428,7 +1446,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1444,24 +1462,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1483,7 +1501,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1494,7 +1512,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,31 +1521,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1536,31 +1554,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,66 +1587,132 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>89</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>51</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>697.13</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>88</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>89</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>90</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>50</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>51</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>73</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1081.1300000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1742,10 +1826,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -137,6 +137,24 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>HYDRO-SAFE SALTE 10SACHTS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -155,18 +173,9 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>KOLAGRA SUN SCREEN 1+1</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>299.00</t>
   </si>
   <si>
@@ -293,7 +302,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:27 PM</t>
+    <t>Friday, 29 August, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,24 +1207,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1224,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1257,20 +1266,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1281,7 +1290,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1297,13 +1306,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1314,7 +1323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1330,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1380,7 +1389,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1396,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1462,24 +1471,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1501,7 +1510,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1509,10 +1518,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,20 +1530,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1545,7 +1554,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1561,13 +1570,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1578,7 +1587,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,31 +1596,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1633,18 +1642,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,66 +1662,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1081.1300000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>94</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>43</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>44</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>76</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1121.1300000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1878,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>DOROFEN 30 CAPS.</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:31 PM</t>
+    <t>Friday, 29 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1125,7 +1134,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1184,11 +1193,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1200,31 +1209,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,20 +1242,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1257,7 +1266,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,14 +1292,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,31 +1308,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,31 +1341,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1405,7 +1414,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1422,7 +1431,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,7 +1447,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1504,24 +1513,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1543,7 +1552,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1551,10 +1560,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,20 +1572,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1587,7 +1596,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1603,13 +1612,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1620,7 +1629,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,31 +1638,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1675,18 +1684,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,66 +1704,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1121.1300000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>97</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>98</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>48</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>79</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1147.1300000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1925,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:37 PM</t>
+    <t>Friday, 29 August, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>299.0000</t>
   </si>
   <si>
+    <t>NOBUR CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:44 PM</t>
+    <t>Friday, 29 August, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1390,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1398,7 +1407,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1414,7 +1423,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1431,7 +1440,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1447,7 +1456,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1480,7 +1489,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,14 +1499,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1546,24 +1555,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,10 +1602,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1645,7 +1654,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1662,7 +1671,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,14 +1697,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1754,49 +1763,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1147.1300000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>100</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>48</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>82</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1237.1300000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>103</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>104</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>105</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +1972,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOROFEN 30 CAPS.</t>
   </si>
   <si>
@@ -146,9 +167,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
@@ -320,7 +338,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:45 PM</t>
+    <t>Friday, 29 August, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1093,7 +1111,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1103,14 +1121,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1119,14 +1137,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1136,14 +1154,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1152,14 +1170,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1169,14 +1187,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1185,14 +1203,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,11 +1220,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1218,14 +1236,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,11 +1253,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1251,20 +1269,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1275,7 +1293,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1302,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,14 +1319,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1317,31 +1335,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1357,13 +1375,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1374,7 +1392,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1390,7 +1408,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1407,7 +1425,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1423,13 +1441,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1440,7 +1458,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1456,7 +1474,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1473,7 +1491,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1489,7 +1507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1506,7 +1524,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1522,7 +1540,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,14 +1550,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1566,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1583,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,31 +1599,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1621,24 +1639,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,20 +1665,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1668,10 +1686,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1680,20 +1698,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1704,7 +1722,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1713,31 +1731,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,31 +1764,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1779,66 +1797,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1237.1300000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>103</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>104</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>54</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>105</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>54</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>88</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1319.1300000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>109</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>110</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>111</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1977,10 +2061,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -152,6 +152,21 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>229.6800</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -170,12 +185,6 @@
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -338,7 +347,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:50 PM</t>
+    <t>Friday, 29 August, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,18 +1291,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1319,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1335,31 +1344,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,31 +1377,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1408,7 +1417,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1441,13 +1450,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1458,7 +1467,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1474,13 +1483,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1491,7 +1500,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1507,7 +1516,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1524,7 +1533,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1540,7 +1549,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1590,7 +1599,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1672,24 +1681,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1719,10 +1728,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,20 +1740,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1755,7 +1764,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,13 +1780,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1788,7 +1797,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,31 +1806,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,18 +1852,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,66 +1872,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1319.1300000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>109</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>48</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>49</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>91</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1548.81</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2071,10 +2113,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:53 PM</t>
+    <t>Friday, 29 August, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -203,6 +203,24 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KEROVIT 15 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>52.8000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -347,7 +365,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:55 PM</t>
+    <t>Friday, 29 August, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1468,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1483,13 +1501,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1500,7 +1518,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1516,7 +1534,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1549,13 +1567,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1566,7 +1584,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1582,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1615,7 +1633,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1632,7 +1650,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1648,7 +1666,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,31 +1725,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1747,24 +1765,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1794,10 +1812,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1830,7 +1848,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,49 +1940,115 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>113</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>49</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1548.81</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>112</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>113</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>114</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>48</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>49</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>97</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1690.6099999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2202,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -212,15 +212,6 @@
     <t>89.0000</t>
   </si>
   <si>
-    <t>KEROVIT 15 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>52.8000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -365,7 +356,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 5:57 PM</t>
+    <t>Friday, 29 August, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,7 +1492,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1518,7 +1509,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1534,13 +1525,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1573,7 +1564,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1600,7 +1591,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1617,7 +1608,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1633,7 +1624,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1650,7 +1641,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,7 +1657,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1699,7 +1690,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1700,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1716,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1765,24 +1756,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1812,10 +1803,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1815,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1864,7 +1855,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1881,7 +1872,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,14 +1881,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,14 +1898,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1940,14 +1931,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,14 +1947,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,82 +1964,49 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="A37" s="7">
-        <v>31</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c t="s" r="C37" s="8">
+      <c r="P37" s="13">
+        <v>1637.81</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>115</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
         <v>116</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c t="s" r="H37" s="9">
-        <v>48</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c t="s" r="L37" s="10">
-        <v>49</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c t="s" r="N37" s="8">
-        <v>97</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c t="s" r="P37" s="11">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
         <v>117</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1690.6099999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>119</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>120</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2207,15 +2165,10 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:02 PM</t>
+    <t>Friday, 29 August, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:03 PM</t>
+    <t>Friday, 29 August, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -92,6 +92,21 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>APPE-RAISE SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -137,9 +152,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DOROFEN 30 CAPS.</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -356,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:04 PM</t>
+    <t>Friday, 29 August, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,7 +1135,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1139,14 +1145,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1155,14 +1161,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1172,14 +1178,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1212,7 +1218,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1221,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,11 +1277,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1300,18 +1306,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,31 +1326,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1353,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,11 +1376,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1386,31 +1392,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,31 +1425,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,7 +1458,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,31 +1524,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1551,31 +1557,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1584,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1634,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1700,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1733,11 +1739,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1749,31 +1755,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,31 +1788,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1848,31 +1854,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,31 +1887,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,31 +1920,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,66 +1953,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1637.81</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>115</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>28</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>52</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>96</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1672.81</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>117</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>118</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>119</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2165,10 +2204,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -263,6 +263,30 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -335,6 +359,15 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -347,9 +380,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -359,10 +389,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Friday, 29 August, 2025 6:06 PM</t>
+    <t>Friday, 29 August, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1723,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1722,28 +1749,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1755,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,31 +1815,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,31 +1848,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1977,7 +2004,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2003,49 +2030,148 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1672.81</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>117</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>120</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>52</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>19</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>89</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>52</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>123</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>28</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>52</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>104</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>119</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1738.81</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2209,10 +2335,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -389,7 +389,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:23 PM</t>
+    <t>Friday, 29 August, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -320,10 +320,13 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>36:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>15.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1902,10 +1905,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1931,11 +1934,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -1947,7 +1950,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1964,11 +1967,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1997,14 +2000,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2034,7 +2037,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2046,14 +2049,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>39</v>
@@ -2079,7 +2082,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2112,7 +2115,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2133,21 +2136,21 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="P41" s="13">
-        <v>1738.81</v>
+        <v>1768.81</v>
       </c>
       <c r="Q41" s="13"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c t="s" r="A42" s="14">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2155,13 +2158,13 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c t="s" r="G42" s="15">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c t="s" r="K42" s="17">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -341,6 +341,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -365,9 +371,6 @@
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -392,7 +395,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:26 PM</t>
+    <t>Friday, 29 August, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1960,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -1983,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2000,14 +2003,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,14 +2036,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2066,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2099,14 +2102,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2132,49 +2135,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>52</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>104</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q40" s="12">
+      <c t="s" r="Q41" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1768.81</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>127</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1788.81</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>128</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
         <v>129</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2353,10 +2389,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -194,12 +203,6 @@
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -236,6 +239,18 @@
     <t>299.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 3MG 102 TAB.</t>
+  </si>
+  <si>
     <t>NOBUR CREAM 50 GM</t>
   </si>
   <si>
@@ -395,7 +410,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:32 PM</t>
+    <t>Friday, 29 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1282,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,14 +1292,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1293,14 +1308,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1310,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,7 +1362,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1359,31 +1374,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1392,31 +1407,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1425,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,11 +1457,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1458,31 +1473,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1498,24 +1513,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,11 +1589,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>31</v>
@@ -1590,28 +1605,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>31</v>
@@ -1623,7 +1638,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1636,15 +1651,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>31</v>
@@ -1656,7 +1671,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1673,14 +1688,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1704,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,11 +1721,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,11 +1754,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1755,28 +1770,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,28 +1869,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1887,31 +1902,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,31 +1935,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,31 +1968,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,28 +2067,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2085,31 +2100,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,31 +2133,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,66 +2166,165 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>55</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>19</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>94</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>55</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>130</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
         <v>38</v>
       </c>
-      <c t="s" r="Q41" s="12">
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>28</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>55</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>109</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1788.81</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>128</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>129</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>130</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2074.8099999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>133</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>134</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>135</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2394,10 +2508,25 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>186.00</t>
   </si>
   <si>
-    <t>186.0000</t>
+    <t>122.7600</t>
   </si>
   <si>
     <t>MAREVAN 3MG 102 TAB.</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:33 PM</t>
+    <t>Friday, 29 August, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,7 +1678,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1695,7 +1695,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2294,7 +2294,7 @@
     </row>
     <row r="45" ht="24.75" customHeight="1">
       <c r="P45" s="13">
-        <v>2074.8099999999999</v>
+        <v>2011.5699999999999</v>
       </c>
       <c r="Q45" s="13"/>
     </row>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -152,12 +152,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
   </si>
   <si>
@@ -401,16 +419,10 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:34 PM</t>
+    <t>Friday, 29 August, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1362,10 +1374,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1374,14 +1386,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1395,7 +1407,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1407,31 +1419,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1440,31 +1452,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1490,11 +1502,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1506,31 +1518,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1539,31 +1551,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1579,7 +1591,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1596,7 +1608,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1612,7 +1624,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1645,13 +1657,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1678,13 +1690,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1695,7 +1707,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1711,7 +1723,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,7 +1749,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1754,11 +1766,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1777,7 +1789,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1794,7 +1806,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1810,7 +1822,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1827,7 +1839,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1843,7 +1855,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -1869,31 +1881,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,20 +1914,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1926,7 +1938,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,7 +1954,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2008,24 +2020,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,31 +2079,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2107,21 +2119,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2133,31 +2145,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,24 +2178,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2206,24 +2218,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,24 +2244,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2272,59 +2284,125 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>97</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>58</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>49</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>28</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>58</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>115</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q44" s="12">
+      <c t="s" r="Q46" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2011.5699999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>133</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>134</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>135</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2097.5700000000002</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>137</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>138</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>139</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2523,10 +2601,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -374,6 +374,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -422,7 +425,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:35 PM</t>
+    <t>Friday, 29 August, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,7 +2155,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,11 +2165,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2178,14 +2181,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2228,14 +2231,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,14 +2247,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,14 +2264,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2277,14 +2280,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2294,14 +2297,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2310,14 +2313,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2327,14 +2330,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2350,7 +2353,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2360,49 +2363,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>58</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>115</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q46" s="12">
+      <c t="s" r="Q47" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2097.5700000000002</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>137</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2147.5700000000002</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>138</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
         <v>139</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>140</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2611,10 +2647,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -383,6 +383,9 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:43 PM</t>
+    <t>Friday, 29 August, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2221,7 +2224,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2264,14 +2267,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2297,14 +2300,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2330,14 +2333,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2363,14 +2366,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2386,7 +2389,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2396,49 +2399,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>138</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>28</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>58</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>115</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q47" s="12">
+      <c t="s" r="Q48" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2147.5700000000002</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>138</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2182.5700000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>139</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>140</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>141</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2652,10 +2688,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -332,6 +332,24 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -428,7 +446,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 6:45 PM</t>
+    <t>Friday, 29 August, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2044,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2059,7 +2077,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2076,7 +2094,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,24 +2110,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2136,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,11 +2219,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,11 +2252,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,11 +2285,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2333,7 +2351,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2356,7 +2374,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2399,11 +2417,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2432,49 +2450,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>97</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>58</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>49</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>28</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>58</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>121</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q48" s="12">
+      <c t="s" r="Q50" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2182.5700000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>139</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>140</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>141</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2309.5700000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>145</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>146</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>147</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2693,10 +2777,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -380,6 +380,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -446,7 +449,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:00 PM</t>
+    <t xml:space="preserve">ماء اكسجين 10 </t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Friday, 29 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2209,7 +2221,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,11 +2231,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,11 +2264,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2275,7 +2287,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,11 +2297,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2341,7 +2353,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2506,7 +2518,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2516,49 +2528,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>145</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>28</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>58</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>121</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q50" s="12">
+      <c t="s" r="Q51" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2309.5700000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>145</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>146</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>97</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>58</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>147</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2369.5700000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>149</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>150</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>151</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2787,10 +2865,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:02 PM</t>
+    <t>Friday, 29 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>MAREVAN 3MG 102 TAB.</t>
   </si>
   <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>NOBUR CREAM 50 GM</t>
   </si>
   <si>
@@ -359,6 +377,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
   </si>
   <si>
@@ -458,7 +488,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:12 PM</t>
+    <t>Friday, 29 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,24 +1624,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,31 +1650,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1660,7 +1690,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1677,7 +1707,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1693,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1726,13 +1756,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1759,13 +1789,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1776,7 +1806,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1792,7 +1822,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1835,11 +1865,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -1858,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1891,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1924,7 +1954,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1950,31 +1980,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,11 +2030,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2016,28 +2046,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2106,7 +2136,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2155,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2172,7 +2202,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2188,24 +2218,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,31 +2244,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,31 +2277,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,11 +2360,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,11 +2393,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,11 +2426,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2436,7 +2466,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,11 +2492,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2594,49 +2624,148 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>103</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>58</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>49</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2369.5700000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>149</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>150</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>151</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>155</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>28</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>58</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>131</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>156</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>103</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>58</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>157</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2453.3899999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>159</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>160</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>161</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2875,10 +3004,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:16 PM</t>
+    <t>Friday, 29 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -371,9 +383,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -452,10 +461,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -470,9 +476,6 @@
     <t>10:4</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -488,7 +491,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:24 PM</t>
+    <t>Friday, 29 August, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,7 +1462,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,11 +1472,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1485,14 +1488,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,11 +1505,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1525,13 +1528,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1542,7 +1545,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1558,13 +1561,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1575,7 +1578,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1591,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,11 +1604,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1617,14 +1620,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,11 +1637,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1650,31 +1653,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,31 +1686,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1752,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,11 +1769,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1782,28 +1785,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -1815,31 +1818,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1848,14 +1851,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1868,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,14 +1901,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,14 +1934,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,14 +1967,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2059,7 +2062,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2070,7 +2073,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2086,24 +2089,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2136,7 +2139,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2152,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,11 +2231,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2244,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2317,24 +2320,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,28 +2379,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2409,28 +2412,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2442,28 +2445,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2475,28 +2478,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2508,28 +2511,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2548,13 +2551,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2565,7 +2568,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,31 +2577,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2614,24 +2617,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2640,31 +2643,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2680,24 +2683,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2713,59 +2716,92 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>157</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>107</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>62</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>158</v>
       </c>
-      <c t="s" r="Q55" s="12">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2453.3899999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>159</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2467.27</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
         <v>160</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>161</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>162</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3019,10 +3055,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -491,7 +500,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:26 PM</t>
+    <t>Friday, 29 August, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,7 +1405,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1509,7 +1518,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1542,7 +1551,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1554,31 +1563,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,31 +1596,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,11 +1679,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1693,24 +1702,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1719,31 +1728,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1825,13 +1834,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1858,13 +1867,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1875,7 +1884,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2082,31 +2091,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,20 +2124,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2139,7 +2148,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2254,7 +2263,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2353,24 +2362,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,31 +2388,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,28 +2421,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2445,28 +2454,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2478,28 +2487,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2511,28 +2520,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2544,28 +2553,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2584,13 +2593,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2601,7 +2610,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2617,24 +2626,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2643,31 +2652,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2676,31 +2685,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2709,31 +2718,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2742,66 +2751,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q56" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>110</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>65</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>161</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2467.27</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>160</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>161</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>162</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2506.27</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>163</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>164</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>165</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3060,10 +3102,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:28 PM</t>
+    <t>Friday, 29 August, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1711,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1719,7 +1728,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1735,24 +1744,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,31 +1770,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1867,13 +1876,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1900,13 +1909,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1917,7 +1926,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2016,7 +2025,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2082,7 +2091,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2108,11 +2117,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2124,31 +2133,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,20 +2166,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2181,7 +2190,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2247,7 +2256,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2296,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2395,24 +2404,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,11 +2612,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2626,7 +2635,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2801,49 +2810,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q57" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>163</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>113</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>65</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>164</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2506.27</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>164</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>165</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2550.27</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>166</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>167</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>168</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3107,10 +3149,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -479,21 +479,27 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>10:4</t>
+  </si>
+  <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t>10:4</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -509,7 +515,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:34 PM</t>
+    <t>Friday, 29 August, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2685,7 +2691,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,7 +2700,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2715,7 +2721,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2748,7 +2754,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>39</v>
@@ -2760,7 +2766,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2826,7 +2832,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2855,13 +2861,13 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="P59" s="13">
-        <v>2550.27</v>
+        <v>2570.27</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="14">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2869,13 +2875,13 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c t="s" r="G60" s="15">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
       <c t="s" r="K60" s="17">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:41 PM</t>
+    <t>Friday, 29 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -314,9 +335,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -479,10 +497,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -515,7 +530,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:42 PM</t>
+    <t>Friday, 29 August, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1371,7 +1386,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1404,7 +1419,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1413,14 +1428,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1430,14 +1445,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1470,7 +1485,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1503,7 +1518,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1536,7 +1551,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1552,7 +1567,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,11 +1577,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1595,11 +1610,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1618,13 +1633,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1635,7 +1650,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1651,13 +1666,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1668,7 +1683,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1684,7 +1699,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,11 +1709,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,11 +1775,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1776,28 +1791,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,7 +1857,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1855,15 +1870,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,7 +1923,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1921,15 +1936,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,7 +1989,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1987,15 +2002,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>31</v>
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,7 +2055,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2057,11 +2072,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,11 +2105,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,11 +2138,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2146,7 +2161,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,31 +2187,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,11 +2237,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2238,28 +2253,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,11 +2303,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2328,7 +2343,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2344,7 +2359,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2394,7 +2409,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2410,7 +2425,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,31 +2451,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,31 +2484,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,31 +2517,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,28 +2550,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2568,28 +2583,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2601,28 +2616,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2634,28 +2649,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2667,31 +2682,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,24 +2715,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2740,24 +2755,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2773,21 +2788,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2799,31 +2814,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2832,66 +2847,132 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2570.27</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>168</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>169</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>28</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>69</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>146</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>170</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>119</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>69</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>171</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2720.27</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>173</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>174</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>175</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3160,10 +3241,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>14.5200</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
   </si>
   <si>
@@ -497,7 +506,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -530,7 +542,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:44 PM</t>
+    <t>Friday, 29 August, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2503,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2524,24 +2536,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -2755,7 +2767,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2769,10 +2781,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2788,7 +2800,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2930,49 +2942,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>119</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>69</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>175</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2720.27</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>173</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>174</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>175</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2739.0999999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>177</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>178</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>179</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3251,10 +3296,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -323,9 +332,6 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -374,9 +380,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -542,7 +545,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:45 PM</t>
+    <t>Friday, 29 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1450,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1464,7 +1467,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1480,7 +1483,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1497,7 +1500,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1513,7 +1516,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,14 +1526,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,14 +1542,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1559,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1575,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1592,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1608,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1626,7 +1629,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1638,14 +1641,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1659,7 +1662,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1671,31 +1674,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,31 +1707,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1737,14 +1740,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1777,7 +1780,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,11 +1790,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1843,7 +1846,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1860,7 +1863,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1876,24 +1879,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,31 +1905,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1942,7 +1945,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1959,7 +1962,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1975,7 +1978,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2008,13 +2011,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2041,13 +2044,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2058,7 +2061,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2074,7 +2077,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2140,7 +2143,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2173,7 +2176,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2187,10 +2190,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,11 +2252,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2265,31 +2268,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,31 +2301,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2331,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,14 +2483,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2562,31 +2565,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2598,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2635,21 +2638,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2661,28 +2664,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2701,21 +2704,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2727,28 +2730,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -2767,21 +2770,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2793,31 +2796,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,31 +2829,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,31 +2862,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +2895,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2932,24 +2935,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2965,59 +2968,92 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>175</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>121</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>72</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>176</v>
       </c>
-      <c t="s" r="Q61" s="12">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2739.0999999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>177</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2766.0999999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>178</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
         <v>179</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>180</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3301,10 +3337,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -371,6 +371,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -545,7 +557,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:51 PM</t>
+    <t>Friday, 29 August, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2314,7 +2326,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2322,7 +2334,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2334,31 +2346,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2391,7 +2403,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2407,7 +2419,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,11 +2462,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2539,7 +2551,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2598,20 +2610,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2622,7 +2634,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2638,7 +2650,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2704,7 +2716,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,11 +2726,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,11 +2759,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,11 +2792,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2825,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2869,7 +2881,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3011,49 +3023,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q62" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>179</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>125</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>72</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>180</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2766.0999999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>178</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>179</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>180</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2789.0999999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>182</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>183</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>184</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3342,10 +3387,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -386,9 +398,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
     <t>14.5200</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -527,6 +545,15 @@
     <t>26:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -557,7 +584,10 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 7:59 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>Friday, 29 August, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1891,7 +1921,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,14 +1931,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1917,31 +1947,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,31 +1980,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>31</v>
@@ -2049,28 +2079,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2082,31 +2112,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2337,7 +2367,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2359,7 +2389,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2367,7 +2397,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2379,31 +2409,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2419,7 +2449,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2469,7 +2499,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2485,7 +2515,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2518,7 +2548,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,11 +2558,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2617,7 +2647,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,7 +2657,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2650,24 +2680,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2676,31 +2706,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2792,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,11 +2855,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,11 +2888,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>171</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2924,7 +2954,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2947,7 +2977,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2990,11 +3020,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3056,49 +3086,181 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>87</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>72</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>59</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2789.0999999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>182</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>183</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>184</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>28</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>72</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>160</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>188</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>87</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>72</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>189</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>121</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>72</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>122</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2890</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>192</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>193</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>194</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3392,10 +3554,30 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -587,7 +605,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:01 PM</t>
+    <t>Friday, 29 August, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,11 +1685,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1704,7 +1722,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1737,7 +1755,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1749,31 +1767,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,31 +1800,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1855,7 +1873,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,11 +1883,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1916,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1921,7 +1939,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,11 +1949,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1971,7 +1989,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1987,24 +2005,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,31 +2031,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2053,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2070,7 +2088,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2086,7 +2104,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2119,13 +2137,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2152,13 +2170,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2169,7 +2187,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2317,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2334,7 +2352,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2350,7 +2368,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2411,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,20 +2427,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2430,7 +2448,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2442,31 +2460,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2565,7 +2583,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2581,7 +2599,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2631,7 +2649,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2647,7 +2665,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2713,7 +2731,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,7 +2741,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2746,24 +2764,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,31 +2790,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2823,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,20 +2856,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2871,28 +2889,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -2904,28 +2922,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2937,28 +2955,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -2970,31 +2988,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>177</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,28 +3021,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3036,31 +3054,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,31 +3087,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3102,28 +3120,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3135,31 +3153,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3168,28 +3186,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3201,66 +3219,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>194</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>90</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>75</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>195</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2890</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>192</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>193</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>194</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>124</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>75</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>125</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2978.6199999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>198</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>199</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>200</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3574,10 +3658,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -299,6 +299,12 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
@@ -605,7 +611,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:07 PM</t>
+    <t>Friday, 29 August, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2038,21 +2044,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2064,31 +2070,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2097,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,11 +2153,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2163,28 +2169,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2196,31 +2202,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2302,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2335,7 +2341,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2349,10 +2355,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,28 +2466,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2500,13 +2506,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2648,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,7 +2681,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2698,7 +2704,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2747,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2823,31 +2829,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,11 +2912,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,11 +2945,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,11 +2978,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -2995,7 +3001,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3011,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,7 +3093,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3104,14 +3110,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,7 +3143,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3160,7 +3166,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3302,49 +3308,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2978.6199999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>198</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>199</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>126</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>75</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>127</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3017.6199999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>200</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>201</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>202</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3668,10 +3707,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>بامبرز رقم 1</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -611,7 +620,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:20 PM</t>
+    <t>Friday, 29 August, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2869,7 +2878,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3100,7 +3109,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3117,7 +3126,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,7 +3135,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3166,7 +3175,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3232,7 +3241,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3331,7 +3340,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3341,49 +3350,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3017.6199999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>200</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>201</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>202</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>126</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>75</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>127</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3347.6199999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>203</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>204</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>205</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3712,10 +3754,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:21 PM</t>
+    <t>Friday, 29 August, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>122.7600</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:24</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MAREVAN 3MG 102 TAB.</t>
   </si>
   <si>
@@ -425,6 +437,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -620,7 +641,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:43 PM</t>
+    <t>Friday, 29 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2284,24 +2305,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2499,7 +2520,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2515,21 +2536,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2541,28 +2562,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2647,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2680,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,11 +2744,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2812,7 +2833,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2871,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,20 +2925,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2928,7 +2949,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3175,7 +3196,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3208,7 +3229,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,11 +3305,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3333,7 +3354,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3383,49 +3404,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>90</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>75</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>207</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3347.6199999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>203</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>204</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>205</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>130</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>75</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>131</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3398.23</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>210</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>211</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>212</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3759,10 +3846,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -299,6 +308,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -476,15 +497,21 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -506,9 +533,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -641,7 +665,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:47 PM</t>
+    <t>Friday, 29 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1933,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1926,7 +1950,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1942,7 +1966,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,11 +1976,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2008,7 +2032,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2058,7 +2082,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2074,7 +2098,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2088,10 +2112,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,31 +2124,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,7 +2190,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2179,15 +2203,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,7 +2256,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2245,15 +2269,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2322,7 +2346,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2338,7 +2362,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,28 +2388,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2397,7 +2421,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2414,11 +2438,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,11 +2471,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,11 +2504,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2520,7 +2544,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2536,7 +2560,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,20 +2586,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2583,10 +2607,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2628,28 +2652,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2734,7 +2758,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2767,7 +2791,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2834,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2867,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2899,7 +2923,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2965,24 +2989,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,31 +3015,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3048,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3064,7 +3088,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,7 +3286,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3361,7 +3385,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3470,49 +3494,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3398.23</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>210</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>211</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>212</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>28</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>75</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>186</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>93</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>75</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>215</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>137</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>75</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>138</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3491.98</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>218</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>219</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>220</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3856,10 +3979,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
@@ -617,10 +617,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -665,7 +665,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:49 PM</t>
+    <t>Friday, 29 August, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3022,7 +3022,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3039,7 +3039,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3605,7 +3605,7 @@
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="P77" s="13">
-        <v>3491.98</v>
+        <v>3510.8099999999999</v>
       </c>
       <c r="Q77" s="13"/>
     </row>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -665,7 +665,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:52 PM</t>
+    <t>Friday, 29 August, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -152,6 +152,24 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -194,6 +212,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -257,6 +287,9 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
@@ -320,6 +353,24 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -338,6 +389,18 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>JACKODAN GEL 60 GM</t>
   </si>
   <si>
@@ -386,15 +449,33 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>MAREVAN 3MG 102 TAB.</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
     <t>17.8200</t>
   </si>
   <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
     <t>NOBUR CREAM 50 GM</t>
   </si>
   <si>
@@ -404,9 +485,6 @@
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -437,9 +515,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>23.0000</t>
   </si>
   <si>
@@ -518,6 +593,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
@@ -530,6 +614,12 @@
     <t>14.5200</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -542,7 +632,16 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8355:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
@@ -554,6 +653,9 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
     <t>بامبرز رقم 1</t>
   </si>
   <si>
@@ -572,9 +674,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -611,16 +710,22 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -665,7 +770,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 8:57 PM</t>
+    <t>Friday, 29 August, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1708,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1636,7 +1741,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1653,7 +1758,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1669,7 +1774,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1679,14 +1784,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1695,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1712,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1728,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1745,14 +1850,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1761,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1778,14 +1883,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1794,14 +1899,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1815,10 +1920,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1827,14 +1932,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1867,13 +1972,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1884,7 +1989,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1900,7 +2005,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1910,11 +2015,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1926,14 +2031,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1943,14 +2048,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1959,20 +2064,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1983,7 +2088,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1999,7 +2104,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2009,11 +2114,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2025,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2042,14 +2147,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2058,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2098,7 +2203,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2131,7 +2236,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2141,11 +2246,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2157,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2174,11 +2279,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2190,28 +2295,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2223,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2240,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2256,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2273,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2289,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2306,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2322,28 +2427,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2355,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2388,31 +2493,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2421,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2438,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2461,7 +2566,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2471,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2487,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2504,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2520,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2537,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,28 +2658,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2586,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2603,14 +2708,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2619,28 +2724,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2652,31 +2757,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2685,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2718,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2758,7 +2863,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2784,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2850,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2867,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2883,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2916,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2933,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2949,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2982,28 +3087,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3015,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3032,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3048,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3065,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3081,28 +3186,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3114,31 +3219,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,7 +3252,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3160,15 +3265,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3180,31 +3285,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,28 +3318,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3246,28 +3351,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3279,28 +3384,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3319,24 +3424,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3345,31 +3450,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>203</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3378,31 +3483,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,31 +3516,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3444,31 +3549,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3477,31 +3582,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3510,31 +3615,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3543,28 +3648,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3576,66 +3681,561 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3510.8099999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>218</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>219</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>31</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>85</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>65</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>222</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>223</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>85</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>224</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>226</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>28</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>85</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>65</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>228</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>85</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>224</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>104</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>85</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>29</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>230</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>85</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>28</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>85</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>234</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>28</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>85</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>209</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>239</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>28</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>85</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>240</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>228</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>85</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>220</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>244</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>245</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>85</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>19</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>247</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>104</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>85</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>65</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>248</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>28</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>85</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>220</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>249</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>104</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>85</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>250</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>163</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>85</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>164</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4361.6400000000003</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>253</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>254</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>255</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3994,10 +4594,85 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -236,13 +248,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -344,9 +356,6 @@
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -722,10 +731,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>28:0</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +779,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:07 PM</t>
+    <t>Friday, 29 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1684,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,11 +1694,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1734,7 +1743,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>31</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1784,11 +1793,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>31</v>
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1857,7 +1866,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1890,7 +1899,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2005,7 +2014,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2071,13 +2080,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2088,7 +2097,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2104,13 +2113,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2121,7 +2130,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2137,7 +2146,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2156,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2335,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2401,7 +2410,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2481,7 +2490,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2493,28 +2502,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2526,31 +2535,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2632,7 +2641,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2665,13 +2674,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2698,13 +2707,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2715,7 +2724,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2731,24 +2740,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2757,20 +2766,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2781,7 +2790,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,11 +2849,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,21 +3103,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3120,28 +3129,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3160,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3193,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3210,7 +3219,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3276,7 +3285,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3309,7 +3318,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3339,10 +3348,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3438,10 +3447,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3570,10 +3579,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3606,7 +3615,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3622,7 +3631,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3661,15 +3670,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3688,24 +3697,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>163</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3721,24 +3730,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,28 +3756,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3780,28 +3789,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3813,28 +3822,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -3846,28 +3855,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3879,28 +3888,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3919,13 +3928,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3936,7 +3945,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3958,18 +3967,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3991,18 +4000,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4018,21 +4027,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>31</v>
@@ -4044,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4084,24 +4093,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,31 +4119,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4183,59 +4192,92 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4361.6400000000003</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>253</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>254</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>255</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>18</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>89</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>167</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4454.3699999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>256</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>257</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>258</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4669,10 +4711,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -731,10 +740,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>31:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -779,7 +788,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:18 PM</t>
+    <t>Friday, 29 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1528,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1529,11 +1538,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1569,7 +1578,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1578,14 +1587,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1668,7 +1677,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1802,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1998,7 +2007,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2014,7 +2023,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2061,10 +2070,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2094,7 +2103,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2106,31 +2115,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,31 +2148,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2262,7 +2271,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,11 +2297,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2344,7 +2353,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2443,7 +2452,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2460,7 +2469,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2493,7 +2502,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2523,10 +2532,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,31 +2544,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2568,31 +2577,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2608,7 +2617,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2658,7 +2667,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2691,7 +2700,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2707,13 +2716,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2724,7 +2733,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2740,13 +2749,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2757,7 +2766,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2773,24 +2782,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,20 +2808,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2823,7 +2832,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3070,7 +3079,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3136,21 +3145,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3162,28 +3171,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3202,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3235,7 +3244,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3252,7 +3261,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3318,7 +3327,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3351,7 +3360,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3381,10 +3390,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,10 +3489,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3612,10 +3621,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3648,7 +3657,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3664,7 +3673,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,31 +3699,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3730,24 +3739,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>166</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3763,24 +3772,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,31 +3798,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,31 +3831,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,31 +3897,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,31 +3930,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3961,13 +3970,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3978,7 +3987,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3994,24 +4003,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4027,24 +4036,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4060,24 +4069,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,31 +4095,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4126,24 +4135,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,31 +4161,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,31 +4194,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4225,59 +4234,92 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4454.3699999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>256</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>257</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>258</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>92</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>170</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4468.8500000000004</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>259</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>260</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>261</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4716,10 +4758,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -98,27 +113,18 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>30.6900</t>
   </si>
   <si>
     <t>APPE-RAISE SYRUP 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -254,6 +260,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -332,6 +350,15 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>FOSAMAX ONCE WEEKLY 70MG 2 TAB.</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -479,6 +506,21 @@
     <t>MAREVAN 3MG 102 TAB.</t>
   </si>
   <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -539,9 +581,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -581,6 +620,12 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>15:1</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -788,7 +833,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:26 PM</t>
+    <t>Friday, 29 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1479,7 +1524,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1488,14 +1533,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1505,11 +1550,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1521,14 +1566,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1538,11 +1583,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1554,14 +1599,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1571,11 +1616,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1587,14 +1632,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1604,14 +1649,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1620,14 +1665,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1637,14 +1682,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1653,14 +1698,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1670,14 +1715,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1686,14 +1731,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1703,14 +1748,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1719,14 +1764,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1736,14 +1781,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1752,14 +1797,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1769,11 +1814,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1785,14 +1830,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1802,14 +1847,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1818,14 +1863,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1835,14 +1880,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,14 +1896,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1913,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1884,14 +1929,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1901,14 +1946,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1924,7 +1969,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1934,14 +1979,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,14 +1995,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1967,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1983,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2000,14 +2045,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,14 +2061,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2078,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2094,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,14 +2111,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2127,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2144,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,7 +2184,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2155,24 +2200,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2181,14 +2226,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2198,11 +2243,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2214,31 +2259,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2247,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2280,14 +2325,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,11 +2342,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2320,7 +2365,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2375,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2346,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2441,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2474,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2507,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2478,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2502,7 +2547,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2518,7 +2563,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2535,7 +2580,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2551,7 +2596,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,10 +2610,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,31 +2622,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,14 +2655,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2672,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,14 +2705,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2676,31 +2721,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2709,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2726,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,20 +2787,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2766,7 +2811,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2782,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2799,7 +2844,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2815,24 +2860,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2841,31 +2886,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,31 +2952,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2940,14 +2985,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,14 +3002,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +3035,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3039,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,11 +3101,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3072,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,14 +3134,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3105,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3200,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3178,13 +3223,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3192,10 +3237,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3211,7 +3256,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,11 +3266,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3237,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3294,7 +3339,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3320,11 +3365,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3336,31 +3381,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3369,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,11 +3431,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3402,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3497,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3518,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,7 +3629,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3607,7 +3652,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3621,10 +3666,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3640,7 +3685,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,31 +3777,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3772,24 +3817,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,31 +3843,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3844,7 +3889,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3855,7 +3900,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3871,24 +3916,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,31 +3942,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,31 +3975,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,31 +4041,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,31 +4074,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,31 +4107,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4102,24 +4147,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4135,24 +4180,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,31 +4206,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4201,24 +4246,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4227,31 +4272,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4260,7 +4305,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4273,53 +4318,251 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>249</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>98</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>241</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>98</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>24</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>120</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>98</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>74</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4468.8500000000004</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>259</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>260</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>261</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>98</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>241</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>270</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>120</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>98</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>271</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>23</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>98</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>184</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4845.6000000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>274</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>275</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>276</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4763,10 +5006,40 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -302,6 +302,9 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
@@ -494,6 +497,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
@@ -593,12 +605,6 @@
     <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -719,6 +725,9 @@
     <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>بامبرز رقم 1</t>
   </si>
   <si>
@@ -833,7 +842,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:33 PM</t>
+    <t>Friday, 29 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,18 +2281,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2292,31 +2301,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2365,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2464,7 +2473,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,11 +2615,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2655,7 +2664,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2672,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2705,11 +2714,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2721,28 +2730,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2761,24 +2770,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,11 +2846,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2886,28 +2895,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2919,31 +2928,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2952,31 +2961,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2985,31 +2994,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3091,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3157,7 +3166,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,7 +3176,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3190,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3303,7 +3312,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3315,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3381,31 +3390,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3421,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3454,21 +3463,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3975,31 +3984,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,28 +4050,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4074,28 +4083,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4107,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,28 +4149,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4173,28 +4182,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4206,28 +4215,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4239,31 +4248,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,31 +4281,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>259</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,28 +4314,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4338,31 +4347,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,31 +4380,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>49</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,28 +4413,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4437,31 +4446,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4470,31 +4479,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4503,66 +4512,165 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>99</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>244</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>121</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>99</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>274</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>23</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>99</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>188</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q99" s="12">
+      <c t="s" r="Q102" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4845.6000000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>274</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>275</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>276</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5020.21</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>277</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>278</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>279</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5036,10 +5144,25 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:44 PM</t>
+    <t>Friday, 29 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -347,213 +347,225 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FOSAMAX ONCE WEEKLY 70MG 2 TAB.</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>HYDRO-SAFE SALTE 10SACHTS</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>122.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:24</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 3MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NOBUR CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FOSAMAX ONCE WEEKLY 70MG 2 TAB.</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>HYDRO-SAFE SALTE 10SACHTS</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>JACKODAN GEL 60 GM</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>299.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>122.7600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:24</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MAREVAN 3MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>NOBUR CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -614,6 +626,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -794,10 +818,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -842,7 +866,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 9:46 PM</t>
+    <t>Friday, 29 August, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,7 +2464,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2457,7 +2481,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2638,7 +2662,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2655,7 +2679,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2695,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2688,7 +2712,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2751,7 +2775,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2763,28 +2787,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2796,31 +2820,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2836,7 +2860,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2902,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2935,13 +2959,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2952,7 +2976,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2968,13 +2992,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2985,7 +3009,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3001,24 +3025,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,20 +3051,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3048,7 +3072,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3060,7 +3084,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,11 +3134,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3126,7 +3150,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3143,7 +3167,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3166,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3213,10 +3237,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,11 +3332,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,28 +3480,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3489,28 +3513,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3522,7 +3546,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3539,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3612,7 +3636,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3638,11 +3662,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3753,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3893,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3885,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3918,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3959,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +4008,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,7 +4107,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4096,15 +4120,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4116,31 +4140,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,7 +4173,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4166,11 +4190,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,11 +4289,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,11 +4322,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4314,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,11 +4355,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,14 +4388,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>262</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,7 +4437,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4430,14 +4454,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,14 +4487,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,11 +4553,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4545,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4562,14 +4586,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4578,7 +4602,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4595,11 +4619,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4611,14 +4635,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4628,49 +4652,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5020.21</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>277</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>278</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>279</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>121</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>99</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>282</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>284</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>23</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>99</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>192</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5268.21</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>285</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>286</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>287</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5159,10 +5249,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:25 PM</t>
+    <t>Friday, 29 August, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>229.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
@@ -554,6 +572,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -722,9 +749,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -752,6 +776,15 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>194.0400</t>
+  </si>
+  <si>
     <t>بامبرز رقم 1</t>
   </si>
   <si>
@@ -866,7 +899,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:30 PM</t>
+    <t>Friday, 29 August, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,21 +2398,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2408,11 +2441,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,7 +2514,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2497,7 +2530,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2596,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,11 +2639,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2695,7 +2728,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2761,7 +2794,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2778,7 +2811,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,7 +2841,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2820,28 +2853,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2886,28 +2919,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2976,7 +3009,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2998,7 +3031,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3025,7 +3058,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3042,7 +3075,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3058,7 +3091,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3091,7 +3124,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3108,7 +3141,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3124,24 +3157,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3157,7 +3190,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,11 +3233,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,11 +3332,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3315,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,7 +3414,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,11 +3464,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3487,7 +3520,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,11 +3530,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3513,31 +3546,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3612,31 +3645,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3784,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3949,7 +3982,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3982,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,7 +4124,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4114,7 +4147,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4147,7 +4180,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,31 +4206,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,31 +4239,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>191</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,28 +4272,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4272,20 +4305,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4296,7 +4329,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4312,7 +4345,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4338,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,11 +4421,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4404,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,11 +4454,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4437,7 +4470,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4454,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>270</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4536,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,7 +4586,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4576,7 +4609,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,14 +4619,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4609,7 +4642,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,7 +4668,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4652,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4668,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4701,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4718,49 +4751,181 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>290</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>127</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>99</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>74</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>18</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>99</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>263</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>127</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>99</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>293</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>295</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>23</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>99</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>201</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q104" s="12">
+      <c t="s" r="Q108" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5268.21</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>285</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>286</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>287</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5675.1000000000004</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5259,10 +5424,30 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:34 PM</t>
+    <t>Friday, 29 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -326,6 +326,12 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -368,6 +374,15 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MAREVAN 3MG 102 TAB.</t>
   </si>
   <si>
@@ -641,6 +665,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
   </si>
   <si>
@@ -716,10 +749,10 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
   </si>
   <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
@@ -899,7 +932,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:38 PM</t>
+    <t>Friday, 29 August, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2431,7 +2464,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,11 +2507,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2490,7 +2523,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2507,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2556,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2606,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,11 +2672,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,11 +2738,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2820,7 +2853,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2837,11 +2870,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,7 +2919,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2903,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2926,21 +2959,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2985,28 +3018,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3018,14 +3051,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,7 +3117,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3097,15 +3130,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3167,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,14 +3183,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,20 +3249,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3237,10 +3270,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3289,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3322,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,11 +3365,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,11 +3398,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,7 +3546,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3596,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3586,7 +3619,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3645,31 +3678,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3685,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3744,31 +3777,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3801,7 +3834,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,24 +3850,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3963,10 +3996,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,11 +4025,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4008,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4029,7 +4062,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4041,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4081,7 +4114,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4114,7 +4147,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,7 +4180,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,14 +4272,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,28 +4437,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4437,20 +4470,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4461,7 +4494,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4477,7 +4510,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4520,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4503,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4586,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4569,14 +4602,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,11 +4619,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4602,7 +4635,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4619,14 +4652,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,14 +4668,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,14 +4685,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>281</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4718,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4701,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,7 +4751,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4741,7 +4774,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,14 +4784,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4774,7 +4807,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,14 +4817,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,7 +4833,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4817,14 +4850,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4833,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,11 +4883,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4866,14 +4899,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4883,49 +4916,181 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>132</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>99</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>74</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>18</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>99</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>274</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>132</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>99</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>304</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>23</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>99</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>209</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q108" s="12">
+      <c t="s" r="Q112" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5675.1000000000004</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>297</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>298</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5845.1599999999999</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>307</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>308</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>309</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5609,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:48 PM</t>
+    <t>Friday, 29 August, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>51.0000</t>
   </si>
   <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
@@ -662,9 +662,6 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -932,7 +929,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:51 PM</t>
+    <t>Friday, 29 August, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2563,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2580,7 +2577,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -3831,7 +3828,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3843,7 +3840,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3860,11 +3857,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3876,7 +3873,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3909,7 +3906,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3926,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3942,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3975,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4008,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4041,7 +4038,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4058,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4074,7 +4071,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4091,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4124,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4140,7 +4137,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4161,7 +4158,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4173,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4206,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4239,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4272,7 +4269,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4338,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>132</v>
@@ -4371,7 +4368,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4388,11 +4385,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4404,7 +4401,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4454,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4487,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>94</v>
@@ -4503,7 +4500,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4520,11 +4517,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4536,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,7 +4550,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4569,7 +4566,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4602,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4635,7 +4632,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4668,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4701,7 +4698,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4751,11 +4748,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4767,7 +4764,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4784,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4800,7 +4797,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4817,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>291</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,7 +4830,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4850,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4866,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,11 +4880,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4899,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4920,7 +4917,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>49</v>
@@ -4932,7 +4929,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4965,7 +4962,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4982,7 +4979,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -4998,7 +4995,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5015,11 +5012,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5031,7 +5028,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5060,13 +5057,13 @@
     </row>
     <row r="113" ht="24.75" customHeight="1">
       <c r="P113" s="13">
-        <v>5845.1599999999999</v>
+        <v>5879.3299999999999</v>
       </c>
       <c r="Q113" s="13"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
       <c t="s" r="A114" s="14">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5074,13 +5071,13 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c t="s" r="G114" s="15">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="16"/>
       <c t="s" r="K114" s="17">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:58 PM</t>
+    <t>Friday, 29 August, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -278,9 +290,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>47.8800</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -908,9 +914,6 @@
     <t>10:4</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -929,7 +932,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 10:59 PM</t>
+    <t>Friday, 29 August, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2148,7 +2151,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2197,7 +2200,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2207,14 +2210,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2247,7 +2250,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2280,7 +2283,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2296,7 +2299,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2401,18 +2404,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2421,20 +2424,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2445,7 +2448,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,13 +2464,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2475,10 +2478,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2508,10 +2511,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2593,7 +2596,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2626,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2643,7 +2646,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2676,7 +2679,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2758,7 +2761,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2791,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2841,7 +2844,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2857,7 +2860,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2874,7 +2877,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2890,7 +2893,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2907,7 +2910,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2923,7 +2926,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2940,7 +2943,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,7 +3006,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3015,28 +3018,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3048,31 +3051,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3088,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3154,7 +3157,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3171,7 +3174,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,13 +3190,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3204,7 +3207,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3220,13 +3223,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3237,7 +3240,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3253,24 +3256,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3286,21 +3289,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3336,7 +3339,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3352,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3369,7 +3372,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3385,7 +3388,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3398,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,7 +3414,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3428,7 +3431,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3451,7 +3454,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3583,7 +3586,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3649,7 +3652,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3715,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,11 +3728,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,28 +3777,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3807,28 +3810,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3847,13 +3850,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3861,10 +3864,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,31 +3876,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4045,7 +4048,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4144,7 +4147,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4177,7 +4180,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4276,7 +4279,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4309,7 +4312,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>132</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,31 +4503,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4536,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,28 +4602,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4632,28 +4635,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4665,28 +4668,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4705,21 +4708,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4731,28 +4734,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4764,31 +4767,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,7 +4800,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4810,18 +4813,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>291</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,7 +4833,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4843,18 +4846,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,24 +4866,24 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4903,24 +4906,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,31 +4932,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4969,24 +4972,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5002,24 +5005,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,66 +5031,99 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>306</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>23</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>102</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>211</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q112" s="12">
+      <c t="s" r="Q113" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5879.3299999999999</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>306</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5897.3299999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>307</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>308</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>309</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5626,10 +5662,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -413,10 +413,13 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>59.50</t>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2853,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2906,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2972,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3035,11 +3038,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3051,28 +3054,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3091,24 +3094,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3150,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3203,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,31 +3219,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,31 +3252,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3282,31 +3285,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,28 +3318,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3381,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,14 +3434,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,7 +3450,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3464,11 +3467,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3500,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3516,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3534,10 +3537,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3599,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3632,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3652,7 +3655,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,11 +3764,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,28 +3813,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3850,21 +3853,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3876,31 +3879,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3909,31 +3912,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3949,7 +3952,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4008,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,11 +4094,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,11 +4193,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4206,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4226,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4325,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4378,7 +4381,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4477,7 +4480,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,11 +4490,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4510,7 +4513,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,31 +4539,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,14 +4589,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4622,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4642,7 +4645,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,11 +4655,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4668,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,11 +4688,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4708,7 +4711,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,11 +4721,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4754,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4774,7 +4777,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,11 +4787,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,7 +4836,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4850,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>293</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,7 +4869,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,11 +4919,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,14 +4952,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,14 +4985,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5005,7 +5008,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,14 +5018,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5038,7 +5041,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5064,14 +5067,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5081,49 +5084,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>307</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>102</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>212</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q113" s="12">
+      <c t="s" r="Q114" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5897.3299999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>307</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5935.3299999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>308</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>309</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>310</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5667,10 +5703,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:03 PM</t>
+    <t>Friday, 29 August, 2025 11:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -722,6 +722,12 @@
     <t>15:1</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -755,9 +761,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -935,7 +938,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:05 PM</t>
+    <t>Friday, 29 August, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4117,7 +4120,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4216,7 +4219,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4249,7 +4252,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4414,7 +4417,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4513,7 +4516,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4546,7 +4549,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,31 +4575,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4678,7 +4681,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4744,7 +4747,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4810,7 +4813,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,14 +4856,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,7 +4872,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4886,14 +4889,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>294</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,7 +4905,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,11 +4955,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4968,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,14 +4988,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5041,7 +5044,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,14 +5054,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5074,7 +5077,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5100,14 +5103,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,49 +5120,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>308</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>23</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>102</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>212</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q114" s="12">
+      <c t="s" r="Q115" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5935.3299999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>308</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5959.3299999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>309</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>310</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>311</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5708,10 +5744,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:06 PM</t>
+    <t>Friday, 29 August, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>47.8800</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -365,6 +374,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
@@ -629,6 +650,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -647,9 +677,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -695,9 +722,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -938,7 +962,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:13 PM</t>
+    <t>Friday, 29 August, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2362,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2352,10 +2376,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2385,7 +2409,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2430,7 +2454,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2443,18 +2467,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2463,20 +2487,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2487,7 +2511,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2503,13 +2527,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2517,10 +2541,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2550,10 +2574,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2635,7 +2659,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2668,7 +2692,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2777,11 +2801,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,11 +2867,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,11 +2900,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,11 +2966,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3008,11 +3032,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,7 +3081,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3090,28 +3114,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3156,28 +3180,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3196,7 +3220,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3213,7 +3237,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3229,7 +3253,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,7 +3279,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3268,15 +3292,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3321,20 +3345,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3342,10 +3366,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3371,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,31 +3411,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,11 +3461,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3849,31 +3873,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,31 +3939,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,28 +3972,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,28 +4038,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,11 +4088,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4153,7 +4177,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4219,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4252,7 +4276,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4351,7 +4375,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4384,7 +4408,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4417,7 +4441,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,7 +4517,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4516,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4549,7 +4573,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,7 +4632,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4621,15 +4645,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4641,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,20 +4731,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4747,24 +4771,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,28 +4797,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4806,28 +4830,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4839,28 +4863,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4872,31 +4896,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,31 +4929,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,28 +4962,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4971,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5011,24 +5035,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>49</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,28 +5061,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5070,31 +5094,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5103,31 +5127,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5136,66 +5160,165 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>312</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>105</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>285</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>313</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>142</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>105</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>314</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>23</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>105</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>123</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q115" s="12">
+      <c t="s" r="Q118" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5959.3299999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>309</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>310</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>311</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6179.1700000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>317</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>318</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>319</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5749,10 +5872,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:16 PM</t>
+    <t>Friday, 29 August, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DOROFEN 30 CAPS.</t>
   </si>
   <si>
@@ -407,12 +416,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -629,6 +632,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
@@ -791,9 +806,6 @@
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -860,6 +872,12 @@
     <t>330.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -917,10 +935,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -962,7 +980,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:24 PM</t>
+    <t>Friday, 29 August, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,7 +2446,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,7 +2505,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2500,18 +2518,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,20 +2538,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2544,7 +2562,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2560,13 +2578,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2574,10 +2592,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2607,10 +2625,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2692,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2742,7 +2760,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,7 +2776,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2775,7 +2793,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2791,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2808,7 +2826,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2824,7 +2842,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2857,7 +2875,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,11 +2918,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,11 +2951,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3114,7 +3132,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3131,11 +3149,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3147,7 +3165,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3180,28 +3198,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3220,24 +3238,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,11 +3314,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,31 +3363,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,31 +3396,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3411,31 +3429,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,28 +3462,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3477,7 +3495,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,7 +3594,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3593,11 +3611,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3663,10 +3681,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3710,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3898,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3913,7 +3931,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3964,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,24 +3997,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4040,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4038,31 +4056,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4104,28 +4122,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,11 +4304,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4309,7 +4327,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4375,7 +4393,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,7 +4535,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4540,7 +4558,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4672,7 +4690,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4738,21 +4756,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4764,31 +4782,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4810,15 +4828,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4843,15 +4861,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4863,31 +4881,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4903,21 +4921,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4929,28 +4947,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4962,28 +4980,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5002,24 +5020,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,31 +5046,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>303</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,28 +5079,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5094,31 +5112,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,31 +5145,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>49</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5160,28 +5178,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5193,31 +5211,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5226,31 +5244,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5259,66 +5277,165 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>18</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>108</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>291</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>143</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>108</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>320</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>322</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>23</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>108</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>126</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q118" s="12">
+      <c t="s" r="Q121" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6179.1700000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>317</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>318</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>319</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6321.1700000000001</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>323</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>324</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>325</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5887,10 +6004,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:25 PM</t>
+    <t>Friday, 29 August, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -386,357 +386,360 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FOSAMAX ONCE WEEKLY 70MG 2 TAB.</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>HYDRO-SAFE SALTE 10SACHTS</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>122.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:24</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAREVAN 3MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NOBUR CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FOSAMAX ONCE WEEKLY 70MG 2 TAB.</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>HYDRO-SAFE SALTE 10SACHTS</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>JACKODAN GEL 60 GM</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>299.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>122.7600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:24</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAREVAN 3MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>NOBUR CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -980,7 +983,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:38 PM</t>
+    <t>Friday, 29 August, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2760,7 +2763,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -4228,7 +4231,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,11 +4241,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4254,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4287,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4353,7 +4356,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4370,11 +4373,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4386,7 +4389,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4419,7 +4422,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4452,7 +4455,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4473,7 +4476,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4485,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4518,7 +4521,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4535,11 +4538,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4551,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4617,7 +4620,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>143</v>
@@ -4683,7 +4686,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4700,11 +4703,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4716,7 +4719,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4749,7 +4752,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4799,11 +4802,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>103</v>
@@ -4815,7 +4818,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4832,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4848,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4881,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,7 +4901,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4914,7 +4917,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4947,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4980,7 +4983,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5013,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5046,7 +5049,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5079,7 +5082,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5096,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5112,7 +5115,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5129,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5145,7 +5148,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5162,14 +5165,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,7 +5181,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5211,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5231,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5244,14 +5247,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5277,7 +5280,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5310,7 +5313,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5327,7 +5330,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5343,7 +5346,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5360,11 +5363,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5376,7 +5379,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5405,13 +5408,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>6321.1700000000001</v>
+        <v>6329.0900000000001</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5419,13 +5422,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:40 PM</t>
+    <t>Friday, 29 August, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 29 August, 2025 11:58 PM</t>
+    <t>Friday, 29 August, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-29_00-00.xlsx
+++ b/DaySale_2025-08-29_00-00.xlsx
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>48.0000</t>
+  </si>
+  <si>
+    <t>BEBELAC 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
   </si>
   <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
@@ -1921,7 +1930,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2020,7 +2029,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2119,7 +2128,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2301,7 +2310,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2383,7 +2392,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2430,10 +2439,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2541,7 +2550,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2554,18 +2563,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2574,20 +2583,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2598,7 +2607,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2614,13 +2623,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2628,10 +2637,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2661,10 +2670,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2977,7 +2986,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,11 +2996,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3043,7 +3052,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3060,7 +3069,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3093,7 +3102,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3126,7 +3135,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3168,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3222,7 +3231,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3234,28 +3243,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3267,31 +3276,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3373,7 +3382,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3390,7 +3399,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3406,13 +3415,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3423,7 +3432,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3439,13 +3448,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3456,7 +3465,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3472,24 +3481,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3505,21 +3514,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3555,7 +3564,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3571,7 +3580,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3588,7 +3597,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3604,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3630,7 +3639,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3647,7 +3656,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3670,7 +3679,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3819,7 +3828,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3835,7 +3844,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,11 +3887,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3934,7 +3943,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4000,7 +4009,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,11 +4019,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4066,21 +4075,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4092,28 +4101,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4125,31 +4134,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4165,24 +4174,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4231,7 +4240,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4396,7 +4405,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4413,7 +4422,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4443,10 +4452,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,11 +4481,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4561,7 +4570,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>143</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4710,7 +4719,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4726,7 +4735,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,11 +4778,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4825,13 +4834,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4842,7 +4851,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4858,21 +4867,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4884,31 +4893,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4924,24 +4933,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,28 +4959,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4983,28 +4992,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5016,28 +5025,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5049,28 +5058,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5082,28 +5091,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5122,13 +5131,13 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5139,7 +5148,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5161,18 +5170,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>310</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5194,18 +5203,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>313</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5221,21 +5230,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5247,31 +5256,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5280,31 +5289,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>143</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5313,31 +5322,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5346,31 +5355,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5386,59 +5395,92 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>23</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>111</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>129</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q121" s="12">
+      <c t="s" r="Q122" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6329.0900000000001</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>324</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>325</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>326</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6639.0900000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>327</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>328</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>329</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6022,10 +6064,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
